--- a/doc_xls_en/Etiket_dlya_perevoda_na_angl_eng-US.xlsx
+++ b/doc_xls_en/Etiket_dlya_perevoda_na_angl_eng-US.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\переводы\аркадия\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28620" windowHeight="12920"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 3" sheetId="1" r:id="rId1"/>
@@ -737,32 +732,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cream for Normal and Combination Skin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scrub Cream</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -787,18 +756,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aqua (Distilled Water), Soybean Oil, Liquid Wax, Perfume Oil, Glycopeptides, Cyclomethicone, Glycerin, Polymer Granules, Monoglycerides, Horse Chestnut Extract, Aloe Vera Extract, High-Molecular-Weight Fatty Alcohols, Wheat Proteins Complex, Vitamin E, Carbopol, TEA, Phenoxyethanol, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate,  Butylated Hydroxytoluene, Flavor (Aroma).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
@@ -831,18 +788,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Lecithin, White Willow Extract, Vegetable Proteins Complex</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aqua (Distilled Water), Alkyl Glycosides, Cocoamidopropylbetaine, Sodium Sulfoethoxylate, Cationic Vegetable Proteins Complex, White Willow Extract, Ethoxylated Glyceryl Cocoate, Lecithin, Alkylmethicone Copolyol, Carbamide, Polyquaternium, Methyl Chloroisothiazolinone and Methyl Isothiazolinone, Methyl Paraben, Phenoxyethanol, Flavor (Aroma).</t>
     </r>
   </si>
   <si>
@@ -1592,181 +1537,51 @@
     <t>Apply on wet skin, massage gently for 1-2 minutes, rinse.</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water), Stabilized Hesperidin, Dipeptide-2, Tetrapeptide-7, Yeast Oxidoreductase, Soybeans and Rice Peptides, Liquid Wax, Shea Oil, Wheat Germ Oil, Phyto-Squalane,  Chestnut Extract, Glycolipids, Glycerin, Phospholipids, β-1,3-Glucan, Carbopol, Methyl Parahydroxybenzoate, Vitamin E, Xanthan Gum, Sodium Hyaluronate, Low Molecular Hyaluronan, Tocopherol, Polysorbate, Hesperidin, Penoxyethanol, Methyl Parahydroxybenzoate, Propyl Parahydroxybenzoate, Phenoxyethanol, TEA, Butylated Hydroxytoluene, Flavor (Aroma).E7</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), Glycerin + Myristyl Tripeptide, Lecithin, Polysaccharides of Marine Proteobacteria, β-1,3-Glucan, Vitamin E, Xanthan Gum, Sodium Hyaluronate, Low Molecular Hyaluronan, Tocopherol, Polysorbate, Hesperidin, Penoxyethanol, Methyl Parahydroxybenzoate, Diazollidinyl Urea, Iod-Prolynyl, Butyl Carbamate, Flavor (Aroma), Citric Acid.</t>
-  </si>
-  <si>
     <t>Hyaluronic acid, β-1,3-Glucan, zinc salts</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water), Liposomes, Licorice Extract, Chamomile Extract; Glucose Derivatives, β-1,3-Glucan, Natural Moisturizing Complex, Organic Zinc Salts, Hyaluronic Acid, Pro-Vitamin B5, Polysaccharides, Amino Acid Protein Complex, Solubilizer, Methyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Flavor (Aroma).</t>
-  </si>
-  <si>
     <t>Neutrazen, Phyto-Placenta, β-1,3-Glucan.</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water), Liposomes, Neutrazen, Phyto-Placenta,  Glucose Derivatives, β-1,3-Glucan, Carbamide, Propylene Glycol, Hyaluronic Acid, Licorice Extract, Polysaccharides, Amino Acid Protein Complex, Solubilizer, Methyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), HYDRIAM, Licorice Extract, Horse Chestnut Extract, Glycerin, Phospholipids, β-1,3-Glucan, Carbamide, Hyaluronic Acid, D-Panthenol, Solubilizer, Xanthan, Tocopherol, Methyl Paraben, Phenoxyethanol, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Citric Acid, Flavor (Aroma).</t>
-  </si>
-  <si>
     <t xml:space="preserve"> β-1,3-Glucan, Phospholipids, Avocado Oil, Encapsulated Pigment</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water); Oils: Soybean, Perfume Oil, Chicken Oil, Wheat Germ, Avocado; Liquid Wax, Glycerin, Glycolipids, Encapsulated Pigment, Monoglycerides, Cyclomethicone, Calendula Extract, Cetostearyl Alcohol, Lecithin, Vitamins A &amp; E, β-1,3-Glucan, Methyl Parahydroxybenzoate, Propyl Parahydroxybenzoate, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Butylated Hydroxytoluene, Flavor (Aroma), Citric Acid.</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water); Oils: Wheat Germ, Soybean, Avocado, Shea; Liquid Wax, Phyto-Squalane, Glycolipids, Glycerin, ChroNoline, Glyceryl Stearate, Cyclomethicone, Phospholipids, High-Molecular-Weight Fatty Alcohols, Vitamins E &amp; F, β-1,3-Glucan, Licorice Extract, Monoglycerides,  Calendula Extract, Cimicifuga Extract, Carnosine, Palmytoyl Wheat Proteins, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Butylated Hydroxytoluene, Citric Acid, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water); Oils: Wheat Germ, Soybean, Avocado, Shea; Liquid Wax, Phyto-Squalane, Glycolipids, Glycerin, Idealift, Glyceryl Stearate, Cyclomethicone, Phospholipids, High-Molecular-Weight Fatty Alcohols, Vitamins E &amp; F, β-1,3-Glucan, Licorice Extract, Monoglycerides,  Calendula Extract, Arjuna Extract, Carnosine, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Butylated Hydroxytoluene, Citric Acid, Flavor (Aroma).</t>
-  </si>
-  <si>
     <t>Placenta Extract, Wheat Germ Oil, β-1,3-Glucan.</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water); Oils: Wheat Germ, Avocado, Egg, Soybean, Perfume Oil; Placenta Extract, Liquid Wax, Membrane Lipids, Glyceryl Stearate, Cyclomethicone, Iso-Decyl Neo-Pentanoate, Glycerin, High-Molecular-Weight Fatty Alcohols, Lecithin, Calendula Extract, β-1,3-Glucan, Allantoin, Lanoline, Vitamin E, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Butylated Hydroxytoluene, Citric Acid, Flavor (Aroma).</t>
-  </si>
-  <si>
     <t>Placenta Extract, Carnitin, β-1,3-Glucan, D-Panthenol</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water), Placenta Extract, Licorice Extract, Birch Extract, Glycerin, Carnitin, β-1,3-Glucan, D-Panthenol, Hyaluronic Acid, Allantoin, Cations-Modified Polysaccharides, Xanthan Gum, Carbopol, TEA, Methyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Flavor (Aroma), Color.</t>
-  </si>
-  <si>
     <t>Palmytoyl Wheat Proteins, Phyto-Squalane, β-1,3-Glucan</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water); Oils: Wheat Germ, Soybean, Avocado, Shea; Liquid Wax, Phyto-Squalane, Glycolipids, Glycerin, Monoglycerides, Cyclomethicone, Phospholipids, High-Molecular-Weight Fatty Alcohols, Vitamins E &amp; F, β-1,3-Glucan, Licorice Extract, Palmytoyl Wheat Proteins, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Butylated Hydroxytoluene, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), Oils: Wheat Germ, Avocado, Egg, Soybeam, Shea, Perfume Oil; Glycolipids, Liquid Wax, Glycerin, Phyto-Squalane, Iso-Decyl Neo-Pentanoate, , Monoglycerides, Cyclomethicone, D-Panthenol, Licorice Extract, High-Molecular-Weight Fatty Alcohols, Phospholipids, Hesperidin, β-1,3-Glucan, Vitamin E, Citric Acid, Methyl Paraben, Propyl Paraben, Phenoxyethanol, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Butylated Hydroxytoluene, Flavor (Aroma).</t>
-  </si>
-  <si>
     <t>Rose Oil, β-1,3-Glucan, Licorice Extract</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water), Licorice Extract, Calendula Extract, Silicone Wax, Rose Oil, β-1,3-Glucan, D-Panthenol, Hyaluronic Acid, Polysaccharides, Carbopol, Solubilizer, Methyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, TEA, Phenoxyethanol, Food Color.</t>
-  </si>
-  <si>
     <t>Azelaic Acid, Phospholipids, β-1,3-Glucan</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water), Azelaic Acid, Glycerin, Sepigel, СО2 Wheat Extract, Phospholipids, Vitamins F &amp; E,  β-1,3-Glucan, White Willow Extract, Licorice Extract, Methyl Paraben, Phenoxyethanol, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Butylated Hydroxytoluene, Food Color.</t>
-  </si>
-  <si>
     <t>β-1,3-Glucan, Hyaluronic Acid, Phosphatidylcholine</t>
   </si>
   <si>
     <t>Glycolic Acid, Lactic Acids, β-1,3-Glucan, Modified Glycolipids</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water), Oils: Soybean, Perfume Oil; Glycolic Acid, Lactic Acid; Glycerin, Modified Glycolipids, Sodium Lactate, Carbamide, Chamomile Extract, Calendula Extract, Licorice Extract; Fatty Alcohols, Polysaccharides, β-1,3-Glucan, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Butylated Hydroxytoluene, Phenoxyethanol, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), Isopropyl Iso-Stearate, Glycerin, Sodium Cocoyl Glutamate, β-1,3-Glucan, Licorice Extract, Carbopol, Acrylate Crosspolymer, TEA, Methyl Parahydroxybenzoate, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), Soybean Oil, Mineral Oil, Glycolipids, Liquid Wax, Glycerin, Licorice Extract, Egg Oil, Cyclomethicone, Lecithin, Wheat Germ Oil, Avocado Oil, D-Panthenol, Vitamins A &amp; E,  β-1,3-Glucan, Carbopol, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Butylated Hydroxytoluene, TEA, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), Licorice Extract, Solubilizer, Hesperidin, D-Panthenol, β-1,3-Glucan, Cationic Polysaccharide, Allantoin, Carbamide, Glycerin, Citric Acid, Methyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), Chamomile Extract, Carbamide, β-1,3-Glucan, Pro-Vitamin B5, Cationic Polysaccharide, Solubilizer, Methyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Citric Acid, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), Glycerin, Sepigel, Phospholipids, Vitamins F &amp; E, D-Panthenol, β-1,3-Glucan, Wheat Germ Oil, Neutrazen, Margosa Extract, Sodium Hyaluronate, Biosulphur, Methyl Paraben, Propyl Paraben, Phenoxyethanol, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Butylated Hydroxytoluene, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), Cyclomethicone, Oils: Wheat Germ, Avocado, Perfume Oil, Soybean Oil; Liquid Wax, Glycerin, Vitamins E &amp; F; Birch Extract, Calendula Extract; D-Panthenol, Lecithin,  β-1,3-Glucan, Carbomer, Methyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Butylated Hydroxytoluene, Phenoxyethanol, TEA, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water), Micronized Polymeric Filters, Octyl Methoxycinnamate; Oils: Soybean, Shea, Perfume Oil; Glycolipids, Glycerin, Cyclomethicone, Calendula Extract, Licorice Extract, Lecithin, β-1,3-Glucan, Vitamin E, Carbopol, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, TEA, Citric Acid, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aqua (Distilled Water); Oils: Wheat Germ, Soybean, Avocado, Soybean, Perfume Oil; Liquid Wax, Renovage, Modified жиросахараFatty-Saccharides, Glucose Derivatives, Cyclomethicone, Artemia Extract, Chamomile Extract, Phosphatidylcholine, High-Molecular-Weight Fatty Alcohols, Vitamins E &amp; F, Glyceryl Stearate, Carnosine, β-1,3-Glucan, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Natural Moisturizersкомпоненты натурального увлажняющего фактора, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hyaluronic Acid, Cationic Polysaccharide, Carbopol,  Methyl Paraben, Propyl Paraben, TEA, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Butylated Hydroxytoluene, Flavor (Aroma).</t>
-    </r>
-  </si>
-  <si>
     <t>50 ml</t>
   </si>
   <si>
     <t>Coenzyme Q10, β-1,3-Glucan, Carnosine.</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water), Liposomes, Licorice Extract, Horse Chestnut Extract; Glucam, Glucose Derivatives, β-1,3-Glucan, Natural Moisturizing Complex, Coenzyme Q10, Carnosinne, Kojic Acid,  Carnitin, Pro-Vitamin B5, Polysaccharides, Arbutin, Allantoin, Solubilizer, Methyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Flavor (Aroma).</t>
-  </si>
-  <si>
     <t>Hexapeptide, Wheat Proteins, β-1,3-Glucan, Coenzyme Q10</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water), Hexapeptide Solution; Oils: Soybean, Wheat Germ, Shea, Perfume Oil; Liquid Wax, Glycolipids, Glycerin, Licorice Extract, Calendula Extract, Phospholipids, Cyclomethicone, Dimethiconol, D-Panthenol, β-1,3-Glucan, Vitamin Е, Wheat Proteins, Coenzyme Q10, Ethoxylated E15, Carbopol, Phenoxyethanol, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, TEA, Butylated Hydroxytoluene, Flavor (Aroma).</t>
-  </si>
-  <si>
     <t>Placenta Extract, Q10 Coenzyme, Carnitine, Shea Oil, Vitamin E, Licorice Extract</t>
   </si>
   <si>
     <t>D-Panthenol, Q10 Coenzyme, Aloe Vera, Licorice, β-1,3-Glucan</t>
   </si>
   <si>
-    <t>Aqua (Distilled Water); Oils: Soybean, Perfume Oil; Liquid Wax, Glycerin, Polyglycerides of Fatty Acids, D-Panthenol, Lanoline, Dimethicone Copolyol, Aloe Vera Extract, Licorice Extract, Magnesium Salts, β-1,3-Glucan, Q10 Coenzyme, Vitamins E &amp; F, Hydrated Castor Oil, Bee Wax, Butylated Hydroxytoluene, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Citric Acid, Flavor (Aroma).</t>
-  </si>
-  <si>
-    <t>Aqua (Distilled Water); Oils: Wheat Germ, Shea, Chicken, Soybean, Perfume Oil; Placenta Extract, Liquid Wax, Glycerin, Polyglycerides of Fatty Acids, Lanoline, Licorice Extract, Magnesium Salts, Urea, Bee Wax, Q10 Coenzyme, Carnitine, Vitamin E, Hydrated Castor Oil, Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Butylated Hydroxytoluene, Flavor (Aroma).E19</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aqua (Distilled Water); Oils: Soybean, Perfume Oil; Liquid Wax,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Modified жиросахараFatty-Saccharides, Moisturizersкомпоненты увлажняющего фактора, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cyclomethicone, Chamomile Extract, Fatty Alcohols, β-1,3-Glucan, Hyaluronic Acid, Vitamin F, Phosphatidylcholine, Vitamin E, Cationic Polysaccharide, Carbopol,  Methyl Paraben, Propyl Paraben, Diazolidinyl Urea and Iodopropynyl Butyl Carbamate, Phenoxyethanol, Butylated Hydroxytoluene, Phenoxyethanol, TEA, Flavor (Aroma).</t>
-    </r>
-  </si>
-  <si>
     <t>Ingredients</t>
   </si>
   <si>
@@ -1783,13 +1598,446 @@
   </si>
   <si>
     <t>Ingredients and directions: see pack</t>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCERIN, ETHYLHEXYL STEARATE, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, SQUALANE, ISODECYL NEOPENTANOATE, GLYCINE SOJA (SOYBEAN) OIL, GLYCERYL STEARATE, PARAFFINUM LIQUIDUM, CYCLOPENTASILOXANE, PANTHENOL, BUTYROSPERMUM PARKII (SHEA) BUTTER, EGG OIL, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, CETEARYL ALCOHOL, LECITHIN, BETA-GLUCAN, GLUCOSYL HESPERIDIN, TRITICUM VULGARE (WHEAT) GERM OIL, PERSEA GRATISSIMA (AVOCADO) OIL, TOCOPHERYL ACETATE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, AZELAIC ACID, POLYACRYLAMIDE (AND) C13-14 ISOPARAFFIN (AND) LAURETH-7, GLYCERIN, LECITHIN, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, TRITICUM VULGARE (WHEAT) GERM OIL, BETA-GLUCAN, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, SALIX ALBA (WILLOW) LEAF EXTRACT, TOCOPHERYL ACETATE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCINE SOJA (SOYBEAN) OIL, ETHYLHEXYL STEARATE, GLYCERYL STEARATE, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, ISODECYL NEOPENTANOATE, CYCLOPENTASILOXANE, PARAFFINUM LIQUIDUM, LECITHIN, EGG OIL, GLYCERIN, CALENDULA OFFICINALIS FLOWER EXTRACT, CETEARYL ALCOHOL, PLACENTAL PROTEIN, TRITICUM VULGARE (WHEAT) GERM OIL, BETA-GLUCAN, PERSEA GRATISSIMA (AVOCADO) OIL, LANOLIN, TOCOPHERYL ACETATE, ALLANTOIN, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCINE SOJA (SOYBEAN) OIL, ETHYLHEXYL STEARATE, PARAFFINUM LIQUIDUM, GLYCERIN, LANOLIN, POLYGLYCERYL-4 DIISOSTEARATE/POLYHYDROXYSTEARATE/SEBACATE, TRITICUM VULGARE (WHEAT) GERM OIL, BUTYROSPERMUM PARKII (SHEA) BUTTER, EGG OIL, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, UREA, MAGNESIUM SULFATE, PLACENTAL PROTEIN, CARNITINE, UBIQUINONE, TOCOPHERYL ACETATE, HYDROGENATED CASTOR OIL, CERA ALBA, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, ETHYLHEXYL STEARATE, GLYCINE SOJA (SOYBEAN) OIL, PARAFFINUM LIQUIDUM, GLYCERIN, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, CYCLOPENTASILOXANE, POLYETHYLENE, GLYCERYL STEARATE, CETEARYL ALCOHOL, AESCULUS HIPPOCASTANUM (HORSE CHESTNUT) EXTRACT, ALOE BARBADENSIS LEAF EXTRACT, TOCOPHERYL ACETATE, HYDROLYZED WHEAT PROTEIN, ACRYLATES/C10-30 ALKYL ACRYLATE CROSSPOLYMER, TRIETHANOLAMINE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <t>Exfoliator Cream</t>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, CYCLOPENTASILOXANE (AND) DIMETHICONOL, GLYCERIN, ETHYLHEXYL STEARATE, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, PANTHENOL, GLYCINE SOJA (SOYBEAN) OIL, PARAFFINUM LIQUIDUM, LECITHIN, BETA-GLUCAN, TRITICUM VULGARE (WHEAT) GERM OIL, BETULA ALBA LEAF EXTRACT, CALENDULA OFFICINALIS FLOWER EXTRACT, PERSEA GRATISSIMA (AVOCADO) OIL, TOCOPHERYL ACETATE, CARBOMER, ACRYLATES/C10-30 ALKYL ACRYLATE CROSSPOLYMER, TRIETHANOLAMINE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, ETHYLHEXYL STEARATE, PARAFFINUM LIQUIDUM, GLYCINE SOJA (SOYBEAN) OIL, GLYCERIN, DIISOSTEAROYL POLYGLYCERYL-3 DIMER DILINOLEATE, PANTHENOL, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, ALOE BARBADENSIS LEAF EXTRACT, LANOLIN, CETYL PEG/PPG-10/1 DIMETHICONE, MAGNESIUM SULFATE, BETA-GLUCAN, CERA ALBA, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, TOCOPHERYL ACETATE, UBIQUINONE, HYDROGENATED CASTOR OIL, CITRIC ACID, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCERIN, POLYACRYLAMIDE (AND) C13-14 ISOPARAFFIN (AND) LAURETH-7, LECITHIN, PANTHENOL, BETA-GLUCAN, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, TRITICUM VULGARE (WHEAT) GERM OIL, TOCOPHERYL ACETATE, WATER (AND) BUTYLENE GLYCOL (AND) DEXTRAN (AND) PALMITOYL TRIPEPTIDE-8, MELIA AZADIRACHTA LEAF EXTRACT, POLYSORBATE 80 (AND) SULFUR, SODIUM HYALURONATE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, ETHYLHEXYL STEARATE, GLYCINE SOJA (SOYBEAN) OIL, PARAFFINUM LIQUIDUM, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, GLYCERIN, MANNITOL (AND) IRON OXIDES (CI 77491) (AND) IRON OXIDES (CI 77492) (AND) IRON OXIDES (CI 77499) (AND) HYDROGENATED LECITHIN (AND) TITANIUM DIOXIDE (AND) ALUMINIUM HYDROXIDE (AND) POLYMETHYL METHACRYLATE, GLYCERYL STEARATE, CYCLOPENTASILOXANE, CALENDULA OFFICINALIS FLOWER EXTRACT, EGG OIL, CETEARYL ALCOHOL, BETA-GLUCAN, LECITHIN, PERSEA GRATISSIMA (AVOCADO) OIL, TRITICUM VULGARE (WHEAT) GERM OIL, TOCOPHERYL ACETATE, RETINYL PALMITATE, CITRIC ACID, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCERIN (AND) WATER (AND) TETRADECYL AMINOBUTYROYLVALYLAMINOBUTYRIC UREA TRIFLUOROACETATE (AND) MAGNESIUM CHLORIDE, LECITHIN, WATER (AND) PROPANEDIOL (AND) DISODIUM PHOSPHATE (AND) XANTHAN GUM (AND) SACCHARIDE ISOMERATE (AND) SODIUM PHOSPHATE (AND) GLYCERYL CAPRYLATE, BETA-GLUCAN, TOCOPHERYL ACETATE, SODIUM HYALURONATE, TOCOPHEROL (AND) STEROLS (AND) SQUALENE (AND) SILICA GEL, GLUCOSYL HESPERIDIN, XANTHAN GUM, POLYSORBATE 20, CITRIC ACID, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCINE SOJA (SOYBEAN) OIL, PARAFFINUM LIQUIDUM, GLYCERIN, GLYCOLIC ACID, PEG-20 METHYL GLUCOSE SESQUISTEARATE, LACTIC ACID, SODIUM LACTATE, UREA, CETEARYL ALCOHOL, BETA-GLUCAN, CHAMOMILLA RECUTITA (MATRICARIA) FLOWER EXTRACT, CALENDULA OFFICINALIS FLOWER EXTRACT, XANTHAN GUM, METHYL GLUCOSE SESQUISTEARATE, POLYQUATERNIUM-10, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCERIN, WATER (AND) PROPANEDIOL (AND) DISODIUM PHOSPHATE (AND) XANTHAN GUM (AND) SACCHARIDE ISOMERATE (AND) SODIUM PHOSPHATE (AND) GLYCERYL CAPRYLATE, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, AESCULUS HIPPOCASTANUM (HORSE CHESTNUT) EXTRACT, BETA-GLUCAN, LECITHIN, UREA, PANTHENOL, SODIUM HYALURONATE, TOCOPHEROL (AND) STEROLS (AND) SQUALENE (AND) SILICA GEL, XANTHAN GUM, POLYSORBATE 20, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, METHYL GLUCETH-20, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, CHAMOMILLA RECUTITA (MATRICARIA) FLOWER EXTRACT, BETA-GLUCAN, UREA, LECITHIN, PANTHENOL, SODIUM HYALURONATE, ZINC PCA, HYDROLYZED WHEAT PROTEIN, XANTHAN GUM, POLYSORBATE 20, GLYCERIN, TOCOPHERYL ACETATE, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, WATER (AND) BUTYLENE GLYCOL (AND) DEXTRAN (AND) PALMITOYL TRIPEPTIDE-8, WATER (AND) PROPYLENE GLYCOL (AND) TRITICUM VULGARE (WHEAT) BRAN EXTRACT (AND) SORBITOL (AND) PHENOXYETHANOL (AND) ETHYLHEXYLGLYCERIN (AND) SODIUM HYDROXIDE, METHYL GLUCETH-20, BETA-GLUCAN, UREA, PROPYLENE GLYCOL, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, LECITHIN, GLYCERIN, XANTHAN GUM, SODIUM HYALURONATE, HYDROLYZED WHEAT PROTEIN, POLYSORBATE 20, TOCOPHERYL ACETATE, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, METHYL GLUCETH-20, BETA-GLUCAN, AESCULUS HIPPOCASTANUM (HORSE CHESTNUT) EXTRACT, UREA, LECITHIN, ARBUTIN, CARNITINE, PANTHENOL, CARNOSINE, ALLANTOIN, UBIQUINONE, KOJIC ACID, HYDROLYZED WHEAT PROTEIN, GLYCERIN, XANTHAN GUM, POLYSORBATE 20, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, POLYSORBATE 20, BETA-GLUCAN, GLYCERIN, PANTHENOL, GLUCOSYL HESPERIDIN, UREA, ALLANTOIN, POLYQUATERNIUM-10, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, CHAMOMILLA RECUTITA (MATRICARIA) FLOWER EXTRACT, POLYSORBATE 20, BETA-GLUCAN, PANTHENOL, UREA, POLYQUATERNIUM-10, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, CALENDULA OFFICINALIS FLOWER EXTRACT, BIS-PEG-18 METHYL ETHER DIMETHYL SILANE, BETA-GLUCAN, ROSA DAMASCENA FLOWER OIL, SODIUM HYALURONATE, PANTHENOL, XANTHAN GUM, CARBOMER, POLYSORBATE 20, TRIETHANOLAMINE, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, CI 16255.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCINE SOJA (SOYBEAN) OIL, PARAFFINUM LIQUIDUM, ETHYLHEXYL STEARATE, GLYCERIN, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, CALENDULA OFFICINALIS FLOWER EXTRACT, EGG OIL, CYCLOPENTASILOXANE, LECITHIN, TRITICUM VULGARE (WHEAT) GERM OIL, BETA-GLUCAN, PERSEA GRATISSIMA (AVOCADO) OIL, PANTHENOL, TOCOPHERYL ACETATE, RETINYL PALMITATE, CARBOMER, TRIETHANOLAMINE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ngredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, METHYLENE BIS-BENZOTRIAZOLYL TETRAMETHYLBUTYLPHENOL (AND) WATER (AND) DECYL GLUCOSIDE (AND) XANTHAN GUM, ETHYLHEXYL METHOXYCINNAMATE, GLYCINE SOJA (SOYBEAN) OIL, PARAFFINUM LIQUIDUM, GLYCERIN, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, BUTYROSPERMUM PARKII (SHEA) BUTTER, CYCLOPENTASILOXANE, LECITHIN, BETA-GLUCAN, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, CALENDULA OFFICINALIS FLOWER EXTRACT, TOCOPHERYL ACETATE, ACRYLATES/C10-30 ALKYL ACRYLATE CROSSPOLYMER, TRIETHANOLAMINE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, ISOPROPYL ISOSTEARATE, GLYCERIN, DISODIUM COCOYL GLUTAMATE, BETA-GLUCAN, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, ACRYLATES/C10-30 ALKYL ACRYLATE CROSSPOLYMER, TRIETHANOLAMINE, PHENOXYETHANOL, METHYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, ETHYLHEXYL STEARATE, GLYCINE SOJA (SOYBEAN) OIL, PARAFFINUM LIQUIDUM, METHYL GLUCETH-20, PEG-20 METHYL GLUCOSE SESQUISTEARATE, CYCLOPENTASILOXANE, CHAMOMILLA RECUTITA (MATRICARIA) FLOWER EXTRACT, METHYL GLUCOSE SESQUISTEARATE, GLYCERYL STEARATE, CETEARYL ALCOHOL, LECITHIN, BETA-GLUCAN, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, SODIUM HYALURONATE, TOCOPHERYL ACETATE, UREA, CARBOMER, POLYQUATERNIUM-10, TRIETHANOLAMINE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cream - Gel for Oily and Combination Skin</t>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, WATER (AND) ACETYL HEXAPEPTIDE-8 (AND) CAPRYLYL GLYCOL, GLYCINE SOJA (SOYBEAN) OIL, ETHYLHEXYL STEARATE, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, GLYCERIN, PARAFFINUM LIQUIDUM, CYCLOPENTASILOXANE (AND) DIMETHICONOL, LECITHIN, TRITICUM VULGARE (WHEAT) GERM OIL, BUTYROSPERMUM PARKII (SHEA) BUTTER, PANTHENOL, CYCLOPENTASILOXANE, BETA-GLUCAN, PHENOXYETHANOL, HYDROLYZED WHEAT PROTEIN, UBIQUINONE, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, CALENDULA OFFICINALIS FLOWER EXTRACT, TOCOPHERYL ACETATE, PEG-20 METHYL GLUCOSE SESQUISTEARATE, CARBOMER, ACRYLATES/C10-30 ALKYL ACRYLATE CROSSPOLYMER, TRIETHANOLAMINE, BHT, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, ETHYLHEXYL STEARATE, SQUALANE, GLYCERIN, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, TRITICUM VULGARE (WHEAT) GERM OIL, GLYCINE SOJA (SOYBEAN) OIL, GLYCERYL STEARATE, CYCLOPENTASILOXANE, LECITHIN, BUTYROSPERMUM PARKII (SHEA) BUTTER, PERSEA GRATISSIMA (AVOCADO) OIL, BETA-GLUCAN, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, CETEARYL ALCOHOL, PALMITOYL HYDROLYZED WHEAT PROTEIN, TOCOPHERYL ACETATE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, GLYCINE SOJA (SOYBEAN) PROTEIN (AND) HYDROLYZED RICE PROTEIN (AND) SUPEROXIDE DISMUTASE (AND) GLYCERIN (AND) WATER (AND) PHENOXYETHANOL (AND) SODIUM BENZOATE, ETHYLHEXYL STEARATE, SQUALANE, WATER (AND) GLYCERIN (AND) HESPERIDIN METHYL CHALCONE (AND) STEARETH-20 (AND) DIPEPTIDE-2 (AND) PALMITOYL TETRAPEPTIDE-7, AESCULUS HIPPOCASTANUM (HORSE CHESTNUT) EXTRACT, BUTYROSPERMUM PARKII (SHEA) BUTTER, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, TRITICUM VULGARE (WHEAT) GERM OIL, LECITHIN, GLYCERIN, BETA-GLUCAN, GLUCOSYL HESPERIDIN, ACRYLATES/C10-30 ALKYL ACRYLATE CROSSPOLYMER, TRIETHANOLAMINE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, ETHYLHEXYL STEARATE, SQUALANE, GLYCERIN, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, GLYCERIN (AND) WATER (AND) DEXTRAN (AND) CAPROOYL TETRAPEPTIDE-3, TRITICUM VULGARE (WHEAT) GERM OIL, GLYCINE SOJA (SOYBEAN) OIL, GLYCERYL STEARATE, CYCLOPENTASILOXANE, BETA-GLUCAN, LECITHIN, PERSEA GRATISSIMA (AVOCADO) OIL, BUTYROSPERMUM PARKII (SHEA) BUTTER, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, CETEARYL ALCOHOL, CIMICIFUGA RACEMOSA ROOT EXTRACT, CARNOSINE, PALMITOYL HYDROLYZED WHEAT PROTEIN, TOCOPHERYL ACETATE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, ETHYLHEXYL STEARATE, SQUALANE, GLYCERIN, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, TRITICUM VULGARE (WHEAT) GERM OIL, GLYCINE SOJA (SOYBEAN) OIL, GLYCERYL STEARATE, CYCLOPENTASILOXANE, BUTYLENE GLYCOL (AND) WATER (AND) SORBITAN LAURATE (AND) HYDROXYETHYLCELLULOSE (AND) ACETYL DIPEPTIDE-1 CETYL ESTER, BETA-GLUCAN, LECITHIN, PERSEA GRATISSIMA (AVOCADO) OIL, BUTYROSPERMUM PARKII (SHEA) BUTTER, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, CETEARYL ALCOHOL, TERMINALIA ARJUNA BARK EXTRACT, CARNOSINE, TOCOPHERYL ACETATE, CITRIC ACID, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, LAURYL GLUCOSIDE, COCAMIDOPROPYL BETAINE, SODIUM LAURETH SULFATE, LAURDIMONIUM HYDROXYPROPYL HYDROLYZED WHEAT PROTEIN, SALIX ALBA (WILLOW) LEAF EXTRACT, LECITHIN, PEG-7 GLYCERYL COCOATE, UREA, CETYL PEG/PPG-10/1 DIMETHICONE, POLYQUATERNIUM-10, CITRIC ACID, PHENOXYETHANOL, METHYLPARABEN, METHYLISOTHIAZOLINONE (AND) METHYLCHLOROISOTHIAZOLINONE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingredients: WATER, CAPRYLIC/CAPRIC TRIGLYCERIDE (AND) TEPRENONE , WATER (AND) ARTEMIA EXTRACT, ETHYLHEXYL STEARATE, METHYL GLUCETH-20, PEG-20 METHYL GLUCOSE SESQUISTEARATE, PARAFFINUM LIQUIDUM, CYCLOPENTASILOXANE, PERSEA GRATISSIMA (AVOCADO) OIL, TRITICUM VULGARE (WHEAT) GERM OIL, LECITHIN, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, GLYCINE SOJA (SOYBEAN) OIL, METHYL GLUCOSE SESQUISTEARATE, CHAMOMILLA RECUTITA (MATRICARIA) FLOWER EXTRACT, GLYCERYL STEARATE, CETEARYL ALCOHOL, BETA-GLUCAN, CARNOSINE, TOCOPHERYL ACETATE, SODIUM HYALURONATE, UREA, CARBOMER, POLYQUATERNIUM-10, TRIETHANOLAMINE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.
+</t>
+  </si>
+  <si>
+    <t>нет в списке</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1957,12 +2205,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2047,7 +2302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2112,9 +2367,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2176,7 +2439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2211,7 +2474,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2422,57 +2685,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="48.1796875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="33.54296875" customWidth="1"/>
-    <col min="7" max="7" width="68.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="82.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E2" s="22" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E3" s="22" t="s">
-        <v>162</v>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="23" t="s">
-        <v>157</v>
+      <c r="E4" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="96" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2483,17 +2746,17 @@
         <v>5</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
-        <v>115</v>
+      <c r="E5" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="172.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2504,112 +2767,112 @@
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>114</v>
+      <c r="E6" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>149</v>
+        <v>121</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>120</v>
+      <c r="E10" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="186" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>151</v>
+        <v>122</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -2618,17 +2881,17 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -2636,76 +2899,76 @@
         <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>123</v>
+      <c r="E13" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>124</v>
+      <c r="E14" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="146" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="146.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>36</v>
@@ -2714,38 +2977,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>155</v>
+        <v>123</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>40</v>
@@ -2754,21 +3017,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="113.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>130</v>
+        <v>115</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>44</v>
@@ -2777,12 +3040,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>47</v>
@@ -2790,34 +3053,34 @@
       <c r="D20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="24" t="s">
         <v>131</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>133</v>
+        <v>116</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>51</v>
       </c>
@@ -2826,227 +3089,227 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>135</v>
+        <v>117</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="158.25" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>156</v>
+        <v>118</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>58</v>
+      <c r="E24" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>138</v>
+        <v>119</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="9" t="s">
-        <v>139</v>
+      <c r="E27" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="9" t="s">
-        <v>140</v>
+      <c r="E28" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="9" t="s">
-        <v>141</v>
+      <c r="E29" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="9" t="s">
-        <v>142</v>
+      <c r="E30" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="78" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="129.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="9" t="s">
-        <v>143</v>
+      <c r="E31" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="9" t="s">
-        <v>144</v>
+      <c r="E32" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>154</v>
+        <v>124</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="91" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="9" t="s">
-        <v>145</v>
+      <c r="E34" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G34" s="7"/>
     </row>
